--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1902835.579556589</v>
+        <v>1995010.271999498</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>698313.6830760738</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6271567.841069153</v>
+        <v>6681092.912484482</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>372.803757994153</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -674,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>397.188167166915</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -829,10 +831,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>12.45745267233643</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -880,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.2256325115549</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>117.297770504159</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -911,7 +913,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>239.8092397409858</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>97.60112162899972</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1102,19 +1104,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>130.7744269909771</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1136,19 +1138,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>57.0676845728945</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>300.1179630699521</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1309,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>213.8764542074653</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>271.5104525493489</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1379,7 +1381,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1421,22 +1423,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.0129631028334</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>284.4554049657235</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1537,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>75.73201610191977</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>260.444681387164</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1613,7 +1615,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1622,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>381.7326801149778</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>293.3118661077256</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>101.330737619658</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1783,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.673798810034</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892152</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1847,7 +1849,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1898,7 +1900,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -2005,10 +2007,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>11.67901514247981</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2017,7 +2019,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>47.24726165657607</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2053,7 +2055,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2062,10 +2064,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2090,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898775</v>
+        <v>75.41330364725212</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2251,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>115.1055716303341</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>150.1330858937262</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717970295</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2536,10 +2538,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>20.24824748785205</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>55.81450188835453</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>100.3319289452719</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2767,10 +2769,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2779,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2950,22 +2952,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>57.29215110549318</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>16.73661137786902</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3190,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>28.46809341379804</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>134.8050407802257</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3250,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3430,16 +3432,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>213.8764542074655</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3554,7 +3556,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>113.9811728869566</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>82.56012880945237</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3752,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>47.14329073667318</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>82.55410916276224</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>146.8887806734697</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3977,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>73.64290817248335</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4144,7 +4146,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -4186,22 +4188,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>227.635750397087</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>165.472491025951</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>487.2469754669713</v>
+        <v>462.6949895047144</v>
       </c>
       <c r="C2" t="n">
-        <v>464.3866495206755</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D2" t="n">
-        <v>87.81719700132894</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E2" t="n">
-        <v>65.88066118959054</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>455.3583126271592</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>455.3583126271592</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>1006.023847611597</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O2" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
         <v>2107.354917580474</v>
@@ -4358,22 +4360,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U2" t="n">
-        <v>2120.543958335517</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V2" t="n">
-        <v>2120.543958335517</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W2" t="n">
-        <v>1724.152608635864</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X2" t="n">
-        <v>1312.432609803611</v>
+        <v>879.7031186113101</v>
       </c>
       <c r="Y2" t="n">
-        <v>907.0953397585014</v>
+        <v>478.5029497558403</v>
       </c>
     </row>
     <row r="3">
@@ -4404,25 +4406,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>51.94486801115937</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="L3" t="n">
-        <v>51.94486801115937</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="M3" t="n">
-        <v>602.6104029955975</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N3" t="n">
-        <v>602.6104029955975</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="O3" t="n">
-        <v>1153.275937980036</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P3" t="n">
         <v>1389.040378766978</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.9200589091701</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="C4" t="n">
-        <v>494.9200589091701</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>494.9200589091701</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7118530620237</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>156.8500788365841</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
@@ -4486,52 +4488,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212358</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="Y4" t="n">
-        <v>685.0860276212358</v>
+        <v>955.7067844524004</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1034.556608460138</v>
+        <v>776.2016990565496</v>
       </c>
       <c r="C5" t="n">
-        <v>607.6558784734377</v>
+        <v>753.3413731102538</v>
       </c>
       <c r="D5" t="n">
-        <v>184.363257658438</v>
+        <v>734.0891563356581</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>308.1122164835157</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>287.02843871332</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>286.7297803431726</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4568,25 +4570,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>667.4947029893171</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>667.4947029893171</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1218.160237973755</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4598,19 +4600,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1867.421837588626</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W5" t="n">
-        <v>1867.421837588626</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="X5" t="n">
-        <v>1859.742242796777</v>
+        <v>1601.387333393189</v>
       </c>
       <c r="Y5" t="n">
-        <v>1454.404972751668</v>
+        <v>1196.05006334808</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>602.6104029955975</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>1153.275937980036</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>1302.520320645319</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N6" t="n">
-        <v>1853.185855629757</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>458.7432593109769</v>
+        <v>861.6538096079925</v>
       </c>
       <c r="C7" t="n">
-        <v>458.7432593109769</v>
+        <v>689.6812464869084</v>
       </c>
       <c r="D7" t="n">
-        <v>458.7432593109769</v>
+        <v>526.3644736136791</v>
       </c>
       <c r="E7" t="n">
         <v>360.1562677665327</v>
@@ -4750,25 +4752,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1652.821823983478</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1520.726443184511</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>1278.162546630316</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>1051.819778320058</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1342.050951843433</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C8" t="n">
-        <v>915.1502218567329</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
-        <v>895.8980050821372</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E8" t="n">
-        <v>873.9614692703988</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4802,25 +4804,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>1768.825772958194</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O8" t="n">
-        <v>1768.825772958194</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4829,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2167.26712663117</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2167.26712663117</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2167.26712663117</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>2167.26712663117</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W8" t="n">
-        <v>1770.875776931517</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="X8" t="n">
-        <v>1359.155778099264</v>
+        <v>1958.87674826694</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094559</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L9" t="n">
-        <v>119.1699405917395</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M9" t="n">
-        <v>119.1699405917395</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N9" t="n">
-        <v>669.8354755761777</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1027.91077931376</v>
+        <v>964.3625747002551</v>
       </c>
       <c r="C10" t="n">
-        <v>855.9382161926764</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4993,19 +4995,19 @@
         <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>2177.872639149549</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="V10" t="n">
-        <v>1961.835816717766</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="W10" t="n">
-        <v>1686.983412890279</v>
+        <v>1623.435208276773</v>
       </c>
       <c r="X10" t="n">
-        <v>1444.419516336084</v>
+        <v>1380.871311722579</v>
       </c>
       <c r="Y10" t="n">
-        <v>1218.076748025826</v>
+        <v>1154.528543412321</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2077.956753343679</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>1651.056023356979</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1227.76340254198</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>801.7864626898374</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>801.7864626898374</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792861</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679216</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>64.68215049679216</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>865.1237628945951</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>1665.565375292398</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
-        <v>2433.665912441805</v>
+        <v>3084.064817777362</v>
       </c>
       <c r="O11" t="n">
-        <v>3234.107524839608</v>
+        <v>3929.209467928174</v>
       </c>
       <c r="P11" t="n">
-        <v>3234.107524839608</v>
+        <v>4637.488747086102</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.107524839608</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>2909.525116467462</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2909.525116467462</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2909.525116467462</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2909.525116467462</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>2497.805117635209</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2497.805117635209</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679216</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L12" t="n">
-        <v>64.68215049679216</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="M12" t="n">
-        <v>865.1237628945951</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N12" t="n">
-        <v>1665.565375292398</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1048.094704761305</v>
+        <v>605.867477820625</v>
       </c>
       <c r="C13" t="n">
-        <v>876.122141640221</v>
+        <v>605.867477820625</v>
       </c>
       <c r="D13" t="n">
-        <v>712.8053687669917</v>
+        <v>442.5507049473957</v>
       </c>
       <c r="E13" t="n">
-        <v>546.5971629198452</v>
+        <v>276.3424991002493</v>
       </c>
       <c r="F13" t="n">
-        <v>374.7353886944056</v>
+        <v>276.3424991002493</v>
       </c>
       <c r="G13" t="n">
-        <v>208.4784189886378</v>
+        <v>276.3424991002493</v>
       </c>
       <c r="H13" t="n">
-        <v>64.68215049679216</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2245.09517790992</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>2245.09517790992</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>2245.09517790992</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V13" t="n">
-        <v>1982.01974216531</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="W13" t="n">
-        <v>1707.167338337823</v>
+        <v>1264.940111397143</v>
       </c>
       <c r="X13" t="n">
-        <v>1464.603441783629</v>
+        <v>1022.376214842949</v>
       </c>
       <c r="Y13" t="n">
-        <v>1238.260673473371</v>
+        <v>796.0334465326906</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2170.315685371786</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>1743.414955385085</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.122334570086</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>894.1453947179433</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>469.0212129073435</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>64.68215049679216</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679216</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679216</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>64.68215049679216</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L14" t="n">
-        <v>832.7826876461987</v>
+        <v>1392.305451315162</v>
       </c>
       <c r="M14" t="n">
-        <v>1633.224300044002</v>
+        <v>2396.59155273422</v>
       </c>
       <c r="N14" t="n">
-        <v>2433.665912441805</v>
+        <v>3372.842611220921</v>
       </c>
       <c r="O14" t="n">
-        <v>3234.107524839608</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>3234.107524839608</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>3234.107524839608</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839608</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>3234.107524839608</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2975.75261543602</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2975.75261543602</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2590.164049663315</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>2590.164049663315</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2590.164049663315</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679216</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679216</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679216</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L15" t="n">
-        <v>64.68215049679216</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M15" t="n">
-        <v>356.730451641001</v>
+        <v>937.263987363325</v>
       </c>
       <c r="N15" t="n">
-        <v>356.730451641001</v>
+        <v>937.263987363325</v>
       </c>
       <c r="O15" t="n">
-        <v>1157.172064038804</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1147.863273021029</v>
+        <v>684.4570266215845</v>
       </c>
       <c r="C16" t="n">
-        <v>975.890709899945</v>
+        <v>512.4844635005005</v>
       </c>
       <c r="D16" t="n">
-        <v>812.5739370267157</v>
+        <v>512.4844635005005</v>
       </c>
       <c r="E16" t="n">
-        <v>646.3657311795693</v>
+        <v>512.4844635005005</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541297</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T16" t="n">
-        <v>2245.09517790992</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U16" t="n">
-        <v>2245.09517790992</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V16" t="n">
-        <v>2081.788310425038</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W16" t="n">
-        <v>1806.935906597548</v>
+        <v>1153.363691486037</v>
       </c>
       <c r="X16" t="n">
-        <v>1564.372010043353</v>
+        <v>910.7997949318425</v>
       </c>
       <c r="Y16" t="n">
-        <v>1338.029241733095</v>
+        <v>684.4570266215845</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5513,28 +5515,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3012.464920930865</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O17" t="n">
-        <v>3857.609571081677</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P17" t="n">
-        <v>4565.888850239604</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q17" t="n">
-        <v>5021.974329743787</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5549,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5591,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1033.96404804924</v>
+        <v>759.8870954416583</v>
       </c>
       <c r="C19" t="n">
-        <v>861.9914849281561</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>416.0527580951347</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>249.7957883893668</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5701,22 +5703,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W19" t="n">
-        <v>1260.306816359498</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X19" t="n">
-        <v>1260.306816359498</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y19" t="n">
-        <v>1033.96404804924</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>4225.654392279956</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N21" t="n">
-        <v>4225.654392279956</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.48383593007</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5935,25 +5937,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>2235.67712750613</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>2119.408873334075</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506588</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952394</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642136</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6075,19 +6077,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3845.931202281452</v>
+        <v>569.7211267295927</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.097056978596</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497731</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723631</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.438213223935</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V25" t="n">
-        <v>4092.726745831964</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W25" t="n">
-        <v>4072.27397059171</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X25" t="n">
-        <v>4072.27397059171</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y25" t="n">
-        <v>3845.931202281452</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>338.650469582768</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6303,22 +6305,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M27" t="n">
-        <v>105.4776804749704</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N27" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.9476090782684</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="C28" t="n">
-        <v>707.9750459571844</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841825</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6391,43 +6393,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100491</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976527</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.11639865629</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578191</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818952</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818952</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338087</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563987</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1869.241345563987</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1587.529878172016</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W28" t="n">
-        <v>1312.677474344529</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X28" t="n">
-        <v>1070.113577790334</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y28" t="n">
-        <v>1070.113577790334</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6463,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P29" t="n">
         <v>4541.493855905342</v>
@@ -6549,13 +6551,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3158.801708427964</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C31" t="n">
-        <v>3100.930848725445</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D31" t="n">
-        <v>3100.930848725445</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E31" t="n">
-        <v>2934.722642878299</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878299</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.43821322394</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>4092.726745831969</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>3817.874342004482</v>
+        <v>1243.401148301044</v>
       </c>
       <c r="X31" t="n">
-        <v>3575.310445450287</v>
+        <v>1000.83725174685</v>
       </c>
       <c r="Y31" t="n">
-        <v>3348.967677140029</v>
+        <v>774.4944834365917</v>
       </c>
     </row>
     <row r="32">
@@ -6698,22 +6700,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M32" t="n">
-        <v>2398.817321261059</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
         <v>4541.493855905342</v>
@@ -6783,16 +6785,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>603.6894663516439</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="C34" t="n">
-        <v>603.6894663516439</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="D34" t="n">
-        <v>440.3726934784146</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="E34" t="n">
-        <v>274.1644876312681</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>397.0839012842478</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>230.8269315784799</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6883,25 +6885,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2099.510419647316</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1819.325971147621</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1537.614503755649</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.762099928162</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1020.198203373968</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y34" t="n">
-        <v>793.8554350637096</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7011,16 +7013,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M36" t="n">
         <v>821.6753975134684</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085.715267670341</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C37" t="n">
-        <v>913.7427045492574</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7120,25 +7122,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2019.640305074347</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>2019.640305074347</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>2019.640305074347</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1744.78790124686</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1502.224004692665</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>1275.881236382407</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,40 +7162,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>456.2068044646703</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>1171.715112440169</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2101.340160059446</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M38" t="n">
-        <v>3105.626261478504</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7202,7 +7204,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7260,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1907.815376917197</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>517.8401132784822</v>
+        <v>552.7245472657546</v>
       </c>
       <c r="C40" t="n">
-        <v>345.8675501573982</v>
+        <v>380.7519841446706</v>
       </c>
       <c r="D40" t="n">
-        <v>345.8675501573982</v>
+        <v>217.4352112714413</v>
       </c>
       <c r="E40" t="n">
-        <v>345.8675501573982</v>
+        <v>217.4352112714413</v>
       </c>
       <c r="F40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7348,34 +7350,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1260.306816359502</v>
       </c>
       <c r="W40" t="n">
-        <v>1176.912746855001</v>
+        <v>985.4544125320151</v>
       </c>
       <c r="X40" t="n">
-        <v>934.3488503008059</v>
+        <v>742.8905159778202</v>
       </c>
       <c r="Y40" t="n">
-        <v>708.006081990548</v>
+        <v>742.8905159778202</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1342.684002146234</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>915.7832721595344</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>915.7832721595344</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>489.8063323073919</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>64.68215049679216</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679216</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679216</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679216</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>780.1904584722912</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1580.632070870094</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1633.224300044002</v>
+        <v>2745.67509191879</v>
       </c>
       <c r="N41" t="n">
-        <v>2433.665912441805</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O41" t="n">
-        <v>3234.107524839608</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839608</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839608</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839608</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>3186.488039247009</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>2928.133129843421</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>2570.64371496967</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>2174.252365270017</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>1762.532366437764</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>1762.532366437764</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679216</v>
+        <v>355.3041521238506</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679216</v>
+        <v>355.3041521238506</v>
       </c>
       <c r="L42" t="n">
-        <v>272.4865562816959</v>
+        <v>355.3041521238506</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.928168679499</v>
+        <v>355.3041521238506</v>
       </c>
       <c r="N42" t="n">
-        <v>1072.928168679499</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>749.2742246142482</v>
+        <v>3640.589801095121</v>
       </c>
       <c r="C43" t="n">
-        <v>749.2742246142482</v>
+        <v>3468.617237974037</v>
       </c>
       <c r="D43" t="n">
-        <v>585.9574517410189</v>
+        <v>3305.300465100808</v>
       </c>
       <c r="E43" t="n">
-        <v>585.9574517410189</v>
+        <v>3139.092259253661</v>
       </c>
       <c r="F43" t="n">
-        <v>414.0956775155793</v>
+        <v>2967.230485028222</v>
       </c>
       <c r="G43" t="n">
-        <v>247.8387078098114</v>
+        <v>2967.230485028222</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679216</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267874</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T43" t="n">
-        <v>2245.09517790992</v>
+        <v>4760.507896175404</v>
       </c>
       <c r="U43" t="n">
-        <v>1964.910729410225</v>
+        <v>4480.323447675709</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.199262018254</v>
+        <v>4331.950941944931</v>
       </c>
       <c r="W43" t="n">
-        <v>1408.346858190767</v>
+        <v>4057.098538117445</v>
       </c>
       <c r="X43" t="n">
-        <v>1165.782961636572</v>
+        <v>4057.098538117445</v>
       </c>
       <c r="Y43" t="n">
-        <v>939.4401933263139</v>
+        <v>3830.755769807186</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2076.18020516758</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>2076.18020516758</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.88758435258</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>1226.910644500437</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>801.7864626898374</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>397.4474002792861</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679216</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>64.68215049679216</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>715.2263527642959</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1515.667965162099</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="N44" t="n">
-        <v>2316.109577559902</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>3116.551189957705</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>3116.551189957705</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839608</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839608</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2975.75261543602</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
-        <v>2975.75261543602</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>2901.365839504219</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>2901.365839504219</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2496.028569459109</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679216</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679216</v>
+        <v>3202.606256330908</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679216</v>
+        <v>3202.606256330908</v>
       </c>
       <c r="K45" t="n">
-        <v>64.68215049679216</v>
+        <v>3398.168248899535</v>
       </c>
       <c r="L45" t="n">
-        <v>64.68215049679216</v>
+        <v>3398.168248899535</v>
       </c>
       <c r="M45" t="n">
-        <v>865.1237628945951</v>
+        <v>3398.168248899535</v>
       </c>
       <c r="N45" t="n">
-        <v>1665.565375292398</v>
+        <v>3398.168248899535</v>
       </c>
       <c r="O45" t="n">
-        <v>1665.565375292398</v>
+        <v>4287.649526911006</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1147.863273021029</v>
+        <v>839.4237300567033</v>
       </c>
       <c r="C46" t="n">
-        <v>975.890709899945</v>
+        <v>839.4237300567033</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267157</v>
+        <v>676.106957183474</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795693</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541297</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2027.921517116229</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>2027.921517116229</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U46" t="n">
-        <v>1747.737068616533</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="V46" t="n">
-        <v>1747.737068616533</v>
+        <v>1538.265496332355</v>
       </c>
       <c r="W46" t="n">
-        <v>1747.737068616533</v>
+        <v>1308.330394921156</v>
       </c>
       <c r="X46" t="n">
-        <v>1505.173172062338</v>
+        <v>1065.766498366961</v>
       </c>
       <c r="Y46" t="n">
-        <v>1338.029241733095</v>
+        <v>839.4237300567033</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>453.322231905261</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P2" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8052,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>268.0669951958121</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8073,7 +8075,7 @@
         <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>259.9167409896189</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>298.7878524343791</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>173.8486821944324</v>
+        <v>268.7645418748068</v>
       </c>
       <c r="N6" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>300.3028744740158</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8529,28 +8531,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>97.94106200967602</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425248</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093337</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>813.13875126819</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>287.4399897374262</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,19 +8771,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>354.5569311593796</v>
       </c>
       <c r="M12" t="n">
-        <v>831.6236617222299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>829.8699094234436</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>233.0753299089938</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>814.1711708663669</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093337</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.806504044348</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659261</v>
+        <v>390.0005948959937</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9012,22 +9014,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>318.0950644963773</v>
+        <v>861.2183961915432</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>831.6987709321241</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9185,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>129.1350140843319</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,25 +9239,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>951.5880457335786</v>
+        <v>971.640792401891</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>659.2874778330922</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9483,16 +9485,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>951.5880457335774</v>
+        <v>921.9548738586921</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,10 +9640,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,7 +9725,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>198.0542523912748</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9735,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>268.1550667350203</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9884,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9960,16 +9962,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>26.3038179559056</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10118,16 +10120,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>276.0147300838795</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>653.7961895378362</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
@@ -10197,16 +10199,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10364,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>362.1014486857561</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10431,19 +10433,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10598,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>578.380983679471</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>467.0745387486232</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>1121.661155963915</v>
@@ -10820,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>386.8988393430025</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10844,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>25.95407573255603</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425248</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>90.55472671145962</v>
+        <v>681.7356392914811</v>
       </c>
       <c r="N41" t="n">
-        <v>845.806504044348</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659261</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11138,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>278.4163741766267</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>232.4185269010011</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>831.6987709321241</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>695.4273982583843</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093337</v>
+        <v>814.1663547822778</v>
       </c>
       <c r="N44" t="n">
-        <v>845.806504044348</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11370,28 +11372,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>219.9366000642696</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234436</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>231.6742813916002</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23267,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.7033521429797815</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>107.972031236933</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.62628970500738</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>18.44967133088738</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>10.69475608767878</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>107.9720312369329</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>68.81241886352718</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080174</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>150.0045900020172</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>95.11104415035108</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>94.83953384262102</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>163.7887810877173</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>14.46131411498402</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>251.8556323013601</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>132.4498071365905</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>61.35167619922511</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.96068638438</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>255.3672684113431</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>113.8902123931291</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>106.1009135161333</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25360,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>27.02950008889351</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>56.16198359622857</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>189.5437509797597</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>171.57302450914</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>59.8041966441649</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,19 +25839,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>132.0055720445817</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>318.7845280301732</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>44.46812939212515</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>58.6068496012044</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>427373.189957033</v>
+        <v>567532.7158903332</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>427373.189957033</v>
+        <v>567532.7158903329</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>576346.5165354314</v>
+        <v>576346.5165354313</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>576346.5165354313</v>
+        <v>576346.5165354314</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>576346.5165354313</v>
+        <v>576346.5165354314</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>427373.189957033</v>
+        <v>567532.7158903333</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>427373.189957033</v>
+        <v>567532.7158903332</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26316,16 @@
         <v>436832.0010083723</v>
       </c>
       <c r="C2" t="n">
-        <v>436832.0010083723</v>
+        <v>436832.0010083722</v>
       </c>
       <c r="D2" t="n">
         <v>436832.0010083723</v>
       </c>
       <c r="E2" t="n">
-        <v>312571.8840020595</v>
+        <v>415076.8720882405</v>
       </c>
       <c r="F2" t="n">
-        <v>312571.8840020594</v>
+        <v>415076.8720882405</v>
       </c>
       <c r="G2" t="n">
         <v>421522.8023530854</v>
@@ -26335,25 +26337,25 @@
         <v>421522.8023530853</v>
       </c>
       <c r="J2" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530855</v>
       </c>
       <c r="K2" t="n">
+        <v>421522.8023530855</v>
+      </c>
+      <c r="L2" t="n">
+        <v>421522.8023530855</v>
+      </c>
+      <c r="M2" t="n">
+        <v>421522.8023530856</v>
+      </c>
+      <c r="N2" t="n">
         <v>421522.8023530854</v>
       </c>
-      <c r="L2" t="n">
-        <v>421522.8023530853</v>
-      </c>
-      <c r="M2" t="n">
-        <v>421522.8023530853</v>
-      </c>
-      <c r="N2" t="n">
-        <v>421522.8023530855</v>
-      </c>
       <c r="O2" t="n">
-        <v>312571.8840020594</v>
+        <v>415076.8720882409</v>
       </c>
       <c r="P2" t="n">
-        <v>312571.8840020595</v>
+        <v>415076.8720882405</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346226</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537389</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,34 +26420,34 @@
         <v>148130.4125690142</v>
       </c>
       <c r="C4" t="n">
-        <v>148130.4125690141</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="D4" t="n">
         <v>148130.4125690142</v>
       </c>
       <c r="E4" t="n">
-        <v>11188.4120876085</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="F4" t="n">
-        <v>11188.41208760844</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792738</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792737</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792737</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792737</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="K4" t="n">
         <v>15116.17365792744</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
         <v>15116.17365792744</v>
@@ -26454,10 +26456,10 @@
         <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
-        <v>11188.4120876085</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="P4" t="n">
-        <v>11188.4120876085</v>
+        <v>14883.79308177073</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34850.60398719279</v>
+        <v>34850.60398719276</v>
       </c>
       <c r="C6" t="n">
-        <v>221255.3374019301</v>
+        <v>221255.3374019299</v>
       </c>
       <c r="D6" t="n">
         <v>221255.33740193</v>
       </c>
       <c r="E6" t="n">
-        <v>176894.0863834267</v>
+        <v>116702.3132818763</v>
       </c>
       <c r="F6" t="n">
-        <v>252225.037536889</v>
+        <v>324134.6008984373</v>
       </c>
       <c r="G6" t="n">
-        <v>199766.1666951879</v>
+        <v>321030.9444232468</v>
       </c>
       <c r="H6" t="n">
         <v>328656.5665067282</v>
       </c>
       <c r="I6" t="n">
-        <v>328656.5665067282</v>
+        <v>328656.5665067281</v>
       </c>
       <c r="J6" t="n">
-        <v>183122.8965719116</v>
+        <v>183122.8965719119</v>
       </c>
       <c r="K6" t="n">
-        <v>328656.5665067282</v>
+        <v>328656.5665067284</v>
       </c>
       <c r="L6" t="n">
-        <v>328656.5665067282</v>
+        <v>328656.5665067284</v>
       </c>
       <c r="M6" t="n">
-        <v>265782.6295413543</v>
+        <v>155526.0753010889</v>
       </c>
       <c r="N6" t="n">
-        <v>328656.5665067284</v>
+        <v>328656.5665067283</v>
       </c>
       <c r="O6" t="n">
-        <v>252225.0375368889</v>
+        <v>324134.6008984377</v>
       </c>
       <c r="P6" t="n">
-        <v>252225.037536889</v>
+        <v>324134.6008984373</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943078</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629549</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943078</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943078</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629549</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>46.25593661269664</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.095730177743576</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>152.1369473363737</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>36.85370811560045</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>304.419399949462</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>55.08045499971968</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27670,7 +27672,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>66.94500215967525</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27822,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>141.329452798235</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>46.25593661269649</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>101.1659342747064</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,13 +28067,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>65.01789851058612</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.5934272398632174</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28545,7 +28547,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-3.086085288164091e-12</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28618,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-7.50022678360063e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28959,7 +28961,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>-4.369123522703482e-12</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -29241,7 +29243,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-3.086085288164092e-12</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -29463,7 +29465,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-4.369123522703482e-12</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34772,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>238.1458997847902</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>263.0232516395698</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
+        <v>48.74406945557187</v>
+      </c>
+      <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>150.7519016821045</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
+        <v>533.7539620806207</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
-        <v>263.0232516395698</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>75.42597529544646</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099019</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>775.859128433744</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099019</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>251.3153151328282</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="M12" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>209.9034401867715</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>775.859128433744</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099019</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099019</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099019</v>
+        <v>352.6096355399696</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>294.9982839840494</v>
+        <v>838.1216156792152</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>808.5268812099019</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35905,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>94.10236418953542</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>928.4912652212506</v>
+        <v>948.544011889563</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>623.5228770382829</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>928.4912652212494</v>
+        <v>898.8580933463641</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>238.7351072494338</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36604,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>3.207037443577619</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36759,7 +36761,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M28" t="n">
-        <v>395.1371666366126</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N28" t="n">
         <v>381.3045564404402</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36838,16 +36840,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>238.7351072494335</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>616.220827727605</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
@@ -36917,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37084,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>324.5260868755248</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37318,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>1100.318127750374</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>357.478879857416</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37564,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37716,7 +37718,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968738</v>
       </c>
       <c r="Q40" t="n">
         <v>128.2829598391535</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099019</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>53.12346381202781</v>
+        <v>644.3043763920493</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099019</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>257.8052598432934</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>209.9034401867715</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>657.1153558257614</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099019</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099019</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38090,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>197.5373662309363</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>209.9034401867715</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1995010.271999498</v>
+        <v>1994292.281884639</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760738</v>
+        <v>698313.6830760741</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -679,7 +679,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>397.188167166915</v>
+        <v>155.8893233795038</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>108.3150987015002</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.2256325115549</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>68.79229238147521</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -904,7 +904,7 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -913,10 +913,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>239.8092397409858</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1068,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W7" t="n">
-        <v>130.7744269909771</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>340.9917477555401</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1147,10 +1147,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>300.1179630699521</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1296,19 +1296,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>76.89567168159896</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>271.5104525493489</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1432,7 +1432,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>284.4554049657235</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1530,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>75.73201610191977</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1587,7 +1587,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>210.7924340362403</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1660,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1675,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>293.3118661077256</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>15.3899804021985</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>101.330737619658</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1897,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>47.24726165657607</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2092,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>75.41330364725212</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399583</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>150.1330858937262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716577</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.81450188835453</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2772,7 +2772,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>16.73661137786902</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>28.46809341379804</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>168.1487656894605</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>78.16614128474215</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>32.15518928474952</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3556,10 +3556,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3669,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>113.9811728869566</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>186.810132212935</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>307.6778494116822</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3796,7 +3796,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3903,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>101.9929615813387</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>146.8887806734697</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>147.7993290726188</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>387.7790261513146</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716532</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>227.635750397087</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>462.6949895047144</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C2" t="n">
-        <v>439.8346635584186</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D2" t="n">
-        <v>420.5824467838229</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E2" t="n">
-        <v>398.6459109720846</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F2" t="n">
-        <v>377.5621332018889</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4333,7 +4333,7 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
         <v>957.7672188505812</v>
@@ -4342,10 +4342,10 @@
         <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P2" t="n">
         <v>1651.269438076291</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1283.774063102812</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>887.3827134031587</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>879.7031186113101</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y2" t="n">
-        <v>478.5029497558403</v>
+        <v>2059.767694660928</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>287.7093087981016</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>287.7093087981016</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M3" t="n">
-        <v>287.7093087981016</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N3" t="n">
-        <v>287.7093087981016</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O3" t="n">
-        <v>838.3748437825398</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>955.7067844524004</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
         <v>955.7067844524004</v>
@@ -4488,52 +4488,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>1981.571904688276</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U4" t="n">
-        <v>1701.387456188581</v>
+        <v>2068.463448541974</v>
       </c>
       <c r="V4" t="n">
-        <v>1419.67598879661</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="W4" t="n">
-        <v>1144.823584969123</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
-        <v>1144.823584969123</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>955.7067844524004</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>776.2016990565496</v>
+        <v>462.6949895047144</v>
       </c>
       <c r="C5" t="n">
-        <v>753.3413731102538</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D5" t="n">
-        <v>734.0891563356581</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E5" t="n">
-        <v>308.1122164835157</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F5" t="n">
-        <v>287.02843871332</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G5" t="n">
-        <v>286.7297803431726</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,22 +4570,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4597,22 +4597,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058789</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>1609.066928185038</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W5" t="n">
-        <v>1609.066928185038</v>
+        <v>1349.239422403769</v>
       </c>
       <c r="X5" t="n">
-        <v>1601.387333393189</v>
+        <v>937.5194235715162</v>
       </c>
       <c r="Y5" t="n">
-        <v>1196.05006334808</v>
+        <v>532.1821535264065</v>
       </c>
     </row>
     <row r="6">
@@ -4652,22 +4652,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="M6" t="n">
-        <v>287.7093087981016</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825398</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>861.6538096079925</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>689.6812464869084</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>526.3644736136791</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>360.1562677665327</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>188.2944935410931</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.533291375449</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1934.533291375449</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>1652.821823983478</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1520.726443184511</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1278.162546630316</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>1051.819778320058</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.919330369398</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D8" t="n">
-        <v>789.7259795676982</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4804,22 +4804,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1123.5801824935</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
         <v>2224.911252462377</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1966.556343058789</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>1966.556343058789</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.87674826694</v>
+        <v>475.662714570906</v>
       </c>
       <c r="Y8" t="n">
-        <v>1655.727290620524</v>
+        <v>474.3658485662003</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>1307.021068682275</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>1307.021068682275</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N9" t="n">
-        <v>1307.021068682275</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>964.3625747002551</v>
+        <v>651.4179035287244</v>
       </c>
       <c r="C10" t="n">
-        <v>792.3900115791711</v>
+        <v>479.4453404076404</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>2177.872639149549</v>
+        <v>2147.238856824397</v>
       </c>
       <c r="U10" t="n">
-        <v>1897.688190649853</v>
+        <v>1867.054408324701</v>
       </c>
       <c r="V10" t="n">
-        <v>1897.688190649853</v>
+        <v>1585.34294093273</v>
       </c>
       <c r="W10" t="n">
-        <v>1623.435208276773</v>
+        <v>1310.490537105243</v>
       </c>
       <c r="X10" t="n">
-        <v>1380.871311722579</v>
+        <v>1067.926640551048</v>
       </c>
       <c r="Y10" t="n">
-        <v>1154.528543412321</v>
+        <v>841.58387224079</v>
       </c>
     </row>
     <row r="11">
@@ -5050,19 +5050,19 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2107.813759290661</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N11" t="n">
-        <v>3084.064817777362</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O11" t="n">
-        <v>3929.209467928174</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P11" t="n">
-        <v>4637.488747086102</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
         <v>5003.847243949504</v>
@@ -5080,13 +5080,13 @@
         <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5123,13 +5123,13 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>690.5618714473296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>1019.283297448028</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="M12" t="n">
-        <v>1019.283297448028</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="N12" t="n">
         <v>1019.283297448028</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>605.867477820625</v>
+        <v>610.1194880726601</v>
       </c>
       <c r="C13" t="n">
-        <v>605.867477820625</v>
+        <v>438.1469249515761</v>
       </c>
       <c r="D13" t="n">
-        <v>442.5507049473957</v>
+        <v>438.1469249515761</v>
       </c>
       <c r="E13" t="n">
-        <v>276.3424991002493</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F13" t="n">
-        <v>276.3424991002493</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G13" t="n">
-        <v>276.3424991002493</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498426</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724326</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U13" t="n">
-        <v>1539.792515224631</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V13" t="n">
-        <v>1539.792515224631</v>
+        <v>1544.044525476666</v>
       </c>
       <c r="W13" t="n">
-        <v>1264.940111397143</v>
+        <v>1269.192121649178</v>
       </c>
       <c r="X13" t="n">
-        <v>1022.376214842949</v>
+        <v>1026.628225094984</v>
       </c>
       <c r="Y13" t="n">
-        <v>796.0334465326906</v>
+        <v>800.2854567847257</v>
       </c>
     </row>
     <row r="14">
@@ -5281,16 +5281,16 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1392.305451315162</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2396.59155273422</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>3372.842611220921</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="O14" t="n">
         <v>3721.926150405491</v>
@@ -5308,19 +5308,19 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867278</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.19946946369</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058034</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
         <v>2958.324093828008</v>
@@ -5354,31 +5354,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>937.263987363325</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N15" t="n">
-        <v>937.263987363325</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O15" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>684.4570266215845</v>
+        <v>597.5373920517386</v>
       </c>
       <c r="C16" t="n">
-        <v>512.4844635005005</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="D16" t="n">
-        <v>512.4844635005005</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="E16" t="n">
-        <v>512.4844635005005</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="F16" t="n">
         <v>410.1301830766035</v>
@@ -5460,28 +5460,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2233.451358979291</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T16" t="n">
-        <v>1990.112011205191</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U16" t="n">
-        <v>1709.927562705496</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V16" t="n">
-        <v>1428.216095313524</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W16" t="n">
-        <v>1153.363691486037</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X16" t="n">
-        <v>910.7997949318425</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y16" t="n">
-        <v>684.4570266215845</v>
+        <v>787.7033607638042</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5527,16 +5527,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5545,22 +5545,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5600,7 +5600,7 @@
         <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>971.931772215671</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.8870954416583</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>587.9145323205743</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>587.9145323205743</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>587.9145323205743</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>416.0527580951347</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>249.7957883893668</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1785.357631525569</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1503.646164133598</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1228.793760306111</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>986.2298637519162</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>759.8870954416583</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
         <v>839.4070255988738</v>
@@ -5755,13 +5755,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1082.193820490624</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5779,25 +5779,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5840,19 +5840,19 @@
         <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>516.5477476675582</v>
+        <v>373.4203922683225</v>
       </c>
       <c r="C22" t="n">
-        <v>440.3726934784146</v>
+        <v>201.4478291472385</v>
       </c>
       <c r="D22" t="n">
-        <v>440.3726934784146</v>
+        <v>201.4478291472385</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472385</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5922,40 +5922,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563995</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064299</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672328</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844841</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906461</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803881</v>
       </c>
     </row>
     <row r="23">
@@ -5992,7 +5992,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
         <v>1007.532766690843</v>
@@ -6077,19 +6077,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>275.5106105659859</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.825557038856</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>569.7211267295927</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>397.7485636085087</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>397.7485636085087</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>397.7485636085087</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>397.7485636085087</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1228.793760306111</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>986.2298637519162</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.8870954416583</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>338.650469582768</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1054.158777558267</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1983.783825177544</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2988.069926596602</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6305,25 +6305,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1429.986740661465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8809303238178</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C28" t="n">
-        <v>741.8809303238178</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D28" t="n">
-        <v>578.5641574505885</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E28" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.018283751469</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.165879923982</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X28" t="n">
-        <v>1024.601983369787</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y28" t="n">
-        <v>798.2592150595294</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>3086.290586304201</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>3931.435236455013</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.328514724526</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>412.355951603442</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D31" t="n">
-        <v>412.355951603442</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E31" t="n">
-        <v>412.355951603442</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1243.401148301044</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>1000.83725174685</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>774.4944834365917</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6700,22 +6700,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>292.0244587153436</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1007.532766690843</v>
+        <v>786.1869982294937</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P32" t="n">
         <v>4541.493855905342</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M33" t="n">
-        <v>305.3113489363686</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N33" t="n">
-        <v>305.3113489363686</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>568.9456755096874</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>568.9456755096874</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>568.9456755096874</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>568.9456755096874</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>397.0839012842478</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>230.8269315784799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>985.454412532011</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>759.1116442217531</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2184.700581617281</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N35" t="n">
-        <v>3160.951640103982</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>4006.096290254794</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7019,25 +7019,25 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>437.5920494001418</v>
+        <v>584.2797508659046</v>
       </c>
       <c r="C37" t="n">
-        <v>265.6194862790578</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3027134058285</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2080.100704161577</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1799.916255661881</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1518.20478826991</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1243.352384442423</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1000.788487888228</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>774.4457195779703</v>
       </c>
     </row>
     <row r="38">
@@ -7174,22 +7174,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.818868109901</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7204,7 +7204,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1191.617659878699</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1191.617659878699</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1907.815376917197</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.7245472657546</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>380.7519841446706</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>217.4352112714413</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>217.4352112714413</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7350,34 +7350,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578199</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.677127506134</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025269</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251169</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751473</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359502</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="W40" t="n">
-        <v>985.4544125320151</v>
+        <v>1790.689676197778</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778202</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.8905159778202</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7420,19 +7420,19 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2745.67509191879</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>3721.926150405491</v>
+        <v>3084.064817777362</v>
       </c>
       <c r="O41" t="n">
-        <v>3721.926150405491</v>
+        <v>3929.209467928174</v>
       </c>
       <c r="P41" t="n">
-        <v>4430.205429563419</v>
+        <v>4637.488747086102</v>
       </c>
       <c r="Q41" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
@@ -7444,19 +7444,19 @@
         <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.19946946369</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V41" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>3254.598706058034</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2849.261436012924</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>355.3041521238506</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>355.3041521238506</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L42" t="n">
-        <v>355.3041521238506</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M42" t="n">
-        <v>355.3041521238506</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N42" t="n">
-        <v>1444.619098596721</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O42" t="n">
-        <v>1444.619098596721</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P42" t="n">
-        <v>1444.619098596721</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3640.589801095121</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C43" t="n">
-        <v>3468.617237974037</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D43" t="n">
-        <v>3305.300465100808</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="E43" t="n">
-        <v>3139.092259253661</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="F43" t="n">
-        <v>2967.230485028222</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G43" t="n">
-        <v>2967.230485028222</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>4760.507896175404</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U43" t="n">
-        <v>4480.323447675709</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V43" t="n">
-        <v>4331.950941944931</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W43" t="n">
-        <v>4057.098538117445</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X43" t="n">
-        <v>4057.098538117445</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y43" t="n">
-        <v>3830.755769807186</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="44">
@@ -7657,16 +7657,16 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2876.781500254679</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>2876.781500254679</v>
+        <v>3332.866979758862</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405491</v>
+        <v>4178.011629909674</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.205429563419</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="Q44" t="n">
         <v>4886.290909067602</v>
@@ -7675,16 +7675,16 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4899.479949822645</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.554378867278</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U44" t="n">
-        <v>4529.262127278774</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.772712405023</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W44" t="n">
         <v>3775.38136270537</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3202.606256330908</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>3202.606256330908</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>3398.168248899535</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>3398.168248899535</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M45" t="n">
-        <v>3398.168248899535</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N45" t="n">
-        <v>3398.168248899535</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O45" t="n">
-        <v>4287.649526911006</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P45" t="n">
-        <v>5003.847243949504</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q45" t="n">
-        <v>5003.847243949504</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>839.4237300567033</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C46" t="n">
-        <v>839.4237300567033</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D46" t="n">
-        <v>676.106957183474</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>509.8987513363276</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
-        <v>509.8987513363276</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
@@ -7833,25 +7833,25 @@
         <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2063.316311498426</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T46" t="n">
-        <v>1819.976963724326</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U46" t="n">
-        <v>1819.976963724326</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V46" t="n">
-        <v>1538.265496332355</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W46" t="n">
-        <v>1308.330394921156</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X46" t="n">
-        <v>1065.766498366961</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y46" t="n">
-        <v>839.4237300567033</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>181.6704383876113</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>268.0669951958121</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,13 +8218,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
@@ -8236,7 +8236,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8300,16 +8300,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>185.3350601123617</v>
       </c>
       <c r="M6" t="n">
-        <v>268.7645418748068</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
@@ -8318,7 +8318,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>572.0660045132436</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>204.8788014195786</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8531,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>467.1209648647325</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>181.4456529820153</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8707,13 +8707,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q11" t="n">
-        <v>287.4399897374262</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,16 +8771,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>354.5569311593796</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>104.5829721389275</v>
       </c>
       <c r="O12" t="n">
         <v>921.6378271075471</v>
@@ -8929,7 +8929,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8938,10 +8938,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>390.0005948959937</v>
+        <v>653.3771105638739</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9014,10 +9014,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>861.2183961915432</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O15" t="n">
         <v>921.6378271075471</v>
@@ -9029,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,10 +9248,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>971.640792401891</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9403,7 +9403,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>659.2874778330922</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9412,7 +9412,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9488,7 +9488,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>921.9548738586921</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9503,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,10 +9640,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>952.6858336296069</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9725,22 +9725,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>198.0542523912748</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>268.1550667350203</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9962,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>653.7961895378362</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>228.1560083209543</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>221.0580860608543</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>726.5568076874005</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10366,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M33" t="n">
-        <v>228.1560083209543</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>423.228367941047</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>578.380983679471</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>467.0745387486232</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>1019.918210644103</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10913,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>25.95407573255603</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>681.7356392914811</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>406.1837623454084</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>278.4163741766267</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,19 +11150,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,10 +11305,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>814.1663547822778</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>260.2767127830747</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11317,7 +11317,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11375,10 +11375,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>219.9366000642696</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11390,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>66.62628970500738</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>68.10191868181113</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>107.9720312369329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>154.8628570876746</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -23664,7 +23664,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>68.81241886352718</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>95.11104415035108</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>94.83953384262102</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>71.98949189918935</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>14.46131411498402</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.4498071365905</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>66.4407354247175</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>255.3672684113431</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>113.8902123931291</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>71.98949189919244</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -25329,7 +25329,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>208.7507650116095</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>56.16198359622857</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>53.32812537571792</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>107.9720312369325</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>68.15019490184649</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>132.0055720445817</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>4.648410051342012</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>118.5577190788912</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>44.46812939212515</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>576346.5165354313</v>
+        <v>576346.5165354314</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>576346.5165354313</v>
+        <v>576346.5165354314</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>567532.7158903333</v>
+        <v>567532.7158903331</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>567532.7158903332</v>
+        <v>567532.7158903329</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>436832.0010083724</v>
+      </c>
+      <c r="C2" t="n">
         <v>436832.0010083723</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>436832.0010083722</v>
       </c>
-      <c r="D2" t="n">
-        <v>436832.0010083723</v>
-      </c>
       <c r="E2" t="n">
-        <v>415076.8720882405</v>
+        <v>415076.8720882406</v>
       </c>
       <c r="F2" t="n">
         <v>415076.8720882405</v>
@@ -26331,31 +26331,31 @@
         <v>421522.8023530854</v>
       </c>
       <c r="H2" t="n">
+        <v>421522.8023530854</v>
+      </c>
+      <c r="I2" t="n">
+        <v>421522.8023530856</v>
+      </c>
+      <c r="J2" t="n">
+        <v>421522.8023530854</v>
+      </c>
+      <c r="K2" t="n">
+        <v>421522.8023530851</v>
+      </c>
+      <c r="L2" t="n">
         <v>421522.8023530853</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>421522.8023530853</v>
-      </c>
-      <c r="J2" t="n">
-        <v>421522.8023530855</v>
-      </c>
-      <c r="K2" t="n">
-        <v>421522.8023530855</v>
-      </c>
-      <c r="L2" t="n">
-        <v>421522.8023530855</v>
-      </c>
-      <c r="M2" t="n">
-        <v>421522.8023530856</v>
       </c>
       <c r="N2" t="n">
         <v>421522.8023530854</v>
       </c>
       <c r="O2" t="n">
-        <v>415076.8720882409</v>
+        <v>415076.8720882402</v>
       </c>
       <c r="P2" t="n">
-        <v>415076.8720882405</v>
+        <v>415076.8720882403</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>148130.4125690142</v>
       </c>
       <c r="C4" t="n">
-        <v>148130.4125690142</v>
+        <v>148130.4125690141</v>
       </c>
       <c r="D4" t="n">
         <v>148130.4125690142</v>
@@ -26435,10 +26435,10 @@
         <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
+        <v>15116.17365792744</v>
+      </c>
+      <c r="I4" t="n">
         <v>15116.17365792743</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
         <v>15116.17365792743</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34850.60398719276</v>
+        <v>34850.60398719288</v>
       </c>
       <c r="C6" t="n">
+        <v>221255.33740193</v>
+      </c>
+      <c r="D6" t="n">
         <v>221255.3374019299</v>
       </c>
-      <c r="D6" t="n">
-        <v>221255.33740193</v>
-      </c>
       <c r="E6" t="n">
-        <v>116702.3132818763</v>
+        <v>116629.796185476</v>
       </c>
       <c r="F6" t="n">
-        <v>324134.6008984373</v>
+        <v>324062.0838020369</v>
       </c>
       <c r="G6" t="n">
-        <v>321030.9444232468</v>
+        <v>320979.9137610625</v>
       </c>
       <c r="H6" t="n">
-        <v>328656.5665067282</v>
+        <v>328605.535844544</v>
       </c>
       <c r="I6" t="n">
-        <v>328656.5665067281</v>
+        <v>328605.5358445442</v>
       </c>
       <c r="J6" t="n">
-        <v>183122.8965719119</v>
+        <v>183071.8659097274</v>
       </c>
       <c r="K6" t="n">
-        <v>328656.5665067284</v>
+        <v>328605.5358445437</v>
       </c>
       <c r="L6" t="n">
-        <v>328656.5665067284</v>
+        <v>328605.5358445439</v>
       </c>
       <c r="M6" t="n">
-        <v>155526.0753010889</v>
+        <v>155475.0446389043</v>
       </c>
       <c r="N6" t="n">
-        <v>328656.5665067283</v>
+        <v>328605.535844544</v>
       </c>
       <c r="O6" t="n">
-        <v>324134.6008984377</v>
+        <v>324062.0838020367</v>
       </c>
       <c r="P6" t="n">
-        <v>324134.6008984373</v>
+        <v>324062.0838020367</v>
       </c>
     </row>
   </sheetData>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.095730177743576</v>
+        <v>245.3945739651547</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>169.0675053131986</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.85370811560045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>346.8575882671395</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27624,7 +27624,7 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>55.08045499971968</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W7" t="n">
-        <v>141.329452798235</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>74.65813289307465</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>101.1659342747064</v>
       </c>
     </row>
     <row r="9">
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>164.0102826147601</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5934272398632174</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-5.510707123472349e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28994,7 +28994,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>144.2794790315872</v>
-      </c>
-      <c r="P2" t="n">
-        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="M5" t="n">
-        <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
@@ -34956,7 +34956,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35020,16 +35020,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="M6" t="n">
-        <v>245.6677613624788</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>444.6058781505029</v>
-      </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35427,13 +35427,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.3153151328282</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>332.04184444515</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="O12" t="n">
         <v>898.4659373853249</v>
@@ -35649,7 +35649,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35658,10 +35658,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>352.6096355399696</v>
+        <v>615.9861512078497</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35734,10 +35734,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>838.1216156792152</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O15" t="n">
         <v>898.4659373853249</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>948.544011889563</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>623.5228770382829</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36132,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36208,7 +36208,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>898.8580933463641</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36290,7 +36290,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404433</v>
       </c>
       <c r="O22" t="n">
         <v>359.0183117977405</v>
@@ -36360,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>914.373791196984</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>174.9574718789468</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>238.7351072494338</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36606,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>616.220827727605</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>191.6381265752677</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>690.7922068925911</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37086,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M33" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>385.7971050416152</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>540.8056218692396</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>444.6753049152899</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>982.4869477446711</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.207037443577533</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37718,7 +37718,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5345574968738</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
         <v>128.2829598391535</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>644.3043763920493</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>370.0590877408104</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>257.8052598432934</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>776.7350918828461</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>222.9970899486287</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38037,7 +38037,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38095,10 +38095,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>197.5373662309363</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
